--- a/java-api/PURE_REGULAR_TESTS_JAVA.xlsx
+++ b/java-api/PURE_REGULAR_TESTS_JAVA.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisconnor/Sites/HONOURS_PROJECT/java-api/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{77411321-53CC-454D-A286-827C69511D80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3F83B-1B3A-0C4D-802F-FE9492E94F64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" activeTab="2"/>
+    <workbookView xWindow="51200" yWindow="4500" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,32 +19,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PURE_REGULAR_TESTS_JAVA!$A$1:$E$602</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$4</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$5</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$3:$O$3</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$4:$O$4</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$5:$O$5</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$6:$O$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$4</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$5</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$6</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$3:$O$3</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$4:$O$4</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$5:$O$5</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$6</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$6:$O$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$3:$O$3</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$4:$O$4</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$5:$O$5</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">PURE_REGULAR_TESTS_JAVA!$J$6:$O$6</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$4</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$5</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">PURE_REGULAR_TESTS_JAVA!$I$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="203" r:id="rId4"/>
-    <pivotCache cacheId="209" r:id="rId5"/>
+    <pivotCache cacheId="232" r:id="rId4"/>
+    <pivotCache cacheId="233" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -111,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General&quot; MB&quot;"/>
     <numFmt numFmtId="165" formatCode="0&quot;ms&quot;"/>
@@ -770,6 +749,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -797,6 +779,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -824,6 +809,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -851,6 +839,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -878,6 +869,9 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -905,6 +899,9 @@
       <c:pivotFmt>
         <c:idx val="6"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -932,6 +929,9 @@
       <c:pivotFmt>
         <c:idx val="7"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -959,6 +959,9 @@
       <c:pivotFmt>
         <c:idx val="8"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -986,6 +989,9 @@
       <c:pivotFmt>
         <c:idx val="9"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1013,6 +1019,9 @@
       <c:pivotFmt>
         <c:idx val="10"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1040,6 +1049,9 @@
       <c:pivotFmt>
         <c:idx val="11"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1067,6 +1079,9 @@
       <c:pivotFmt>
         <c:idx val="12"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1094,6 +1109,9 @@
       <c:pivotFmt>
         <c:idx val="13"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1121,6 +1139,9 @@
       <c:pivotFmt>
         <c:idx val="14"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1148,6 +1169,9 @@
       <c:pivotFmt>
         <c:idx val="15"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1175,6 +1199,9 @@
       <c:pivotFmt>
         <c:idx val="16"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1202,6 +1229,9 @@
       <c:pivotFmt>
         <c:idx val="17"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1229,6 +1259,9 @@
       <c:pivotFmt>
         <c:idx val="18"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1256,6 +1289,9 @@
       <c:pivotFmt>
         <c:idx val="19"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1283,6 +1319,9 @@
       <c:pivotFmt>
         <c:idx val="20"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1310,6 +1349,9 @@
       <c:pivotFmt>
         <c:idx val="21"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1337,6 +1379,9 @@
       <c:pivotFmt>
         <c:idx val="22"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1364,6 +1409,9 @@
       <c:pivotFmt>
         <c:idx val="23"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1391,6 +1439,9 @@
       <c:pivotFmt>
         <c:idx val="24"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1418,6 +1469,9 @@
       <c:pivotFmt>
         <c:idx val="25"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1445,6 +1499,9 @@
       <c:pivotFmt>
         <c:idx val="26"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1472,6 +1529,9 @@
       <c:pivotFmt>
         <c:idx val="27"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1499,6 +1559,9 @@
       <c:pivotFmt>
         <c:idx val="28"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1526,6 +1589,9 @@
       <c:pivotFmt>
         <c:idx val="29"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1553,6 +1619,9 @@
       <c:pivotFmt>
         <c:idx val="30"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1580,6 +1649,9 @@
       <c:pivotFmt>
         <c:idx val="31"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1607,6 +1679,9 @@
       <c:pivotFmt>
         <c:idx val="32"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1634,6 +1709,9 @@
       <c:pivotFmt>
         <c:idx val="33"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1661,6 +1739,9 @@
       <c:pivotFmt>
         <c:idx val="34"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1688,6 +1769,9 @@
       <c:pivotFmt>
         <c:idx val="35"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1715,6 +1799,9 @@
       <c:pivotFmt>
         <c:idx val="36"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1742,6 +1829,9 @@
       <c:pivotFmt>
         <c:idx val="37"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1769,6 +1859,9 @@
       <c:pivotFmt>
         <c:idx val="38"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1796,6 +1889,9 @@
       <c:pivotFmt>
         <c:idx val="39"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1823,6 +1919,9 @@
       <c:pivotFmt>
         <c:idx val="40"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1850,6 +1949,9 @@
       <c:pivotFmt>
         <c:idx val="41"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1877,6 +1979,9 @@
       <c:pivotFmt>
         <c:idx val="42"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1904,6 +2009,9 @@
       <c:pivotFmt>
         <c:idx val="43"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1931,6 +2039,9 @@
       <c:pivotFmt>
         <c:idx val="44"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1958,6 +2069,9 @@
       <c:pivotFmt>
         <c:idx val="45"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1985,6 +2099,9 @@
       <c:pivotFmt>
         <c:idx val="46"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2012,6 +2129,9 @@
       <c:pivotFmt>
         <c:idx val="47"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2039,6 +2159,9 @@
       <c:pivotFmt>
         <c:idx val="48"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2066,6 +2189,9 @@
       <c:pivotFmt>
         <c:idx val="49"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2093,6 +2219,9 @@
       <c:pivotFmt>
         <c:idx val="50"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2120,6 +2249,9 @@
       <c:pivotFmt>
         <c:idx val="51"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2147,6 +2279,9 @@
       <c:pivotFmt>
         <c:idx val="52"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2174,6 +2309,9 @@
       <c:pivotFmt>
         <c:idx val="53"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2201,6 +2339,9 @@
       <c:pivotFmt>
         <c:idx val="54"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2228,6 +2369,9 @@
       <c:pivotFmt>
         <c:idx val="55"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2255,6 +2399,9 @@
       <c:pivotFmt>
         <c:idx val="56"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2282,6 +2429,9 @@
       <c:pivotFmt>
         <c:idx val="57"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2309,6 +2459,9 @@
       <c:pivotFmt>
         <c:idx val="58"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2336,6 +2489,9 @@
       <c:pivotFmt>
         <c:idx val="59"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2363,6 +2519,9 @@
       <c:pivotFmt>
         <c:idx val="60"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2390,6 +2549,9 @@
       <c:pivotFmt>
         <c:idx val="61"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2417,6 +2579,9 @@
       <c:pivotFmt>
         <c:idx val="62"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -4308,7 +4473,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>PURE_REGULAR_TESTS_JAVA!$I$5</c:f>
+              <c:f>PURE_REGULAR_TESTS_JAVA!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4355,7 +4520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PURE_REGULAR_TESTS_JAVA!$J$5:$O$5</c:f>
+              <c:f>PURE_REGULAR_TESTS_JAVA!$J$4:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>0"ms"</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4391,7 +4556,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>PURE_REGULAR_TESTS_JAVA!$I$6</c:f>
+              <c:f>PURE_REGULAR_TESTS_JAVA!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4438,7 +4603,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PURE_REGULAR_TESTS_JAVA!$J$6:$O$6</c:f>
+              <c:f>PURE_REGULAR_TESTS_JAVA!$J$5:$O$5</c:f>
               <c:numCache>
                 <c:formatCode>0"ms"</c:formatCode>
                 <c:ptCount val="6"/>
@@ -6458,7 +6623,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43571.87164351852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="601">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43571.87164351852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="601" xr:uid="{00000000-000A-0000-FFFF-FFFFCB000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E602" sheet="PURE_REGULAR_TESTS_JAVA"/>
   </cacheSource>
@@ -6943,7 +7108,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43571.874460995372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="601">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43571.874460995372" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="601" xr:uid="{00000000-000A-0000-FFFF-FFFFD1000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F602" sheet="PURE_REGULAR_TESTS_JAVA"/>
   </cacheSource>
@@ -17120,7 +17285,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable20" cacheId="203" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable20" cacheId="232" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -17626,7 +17791,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable21" cacheId="209" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable21" cacheId="233" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -19161,7 +19326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19220,7 +19385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19282,11 +19447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="I3" sqref="I3:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19331,7 +19496,7 @@
         <v>73</v>
       </c>
       <c r="F2">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F2:F65" si="0">FLOOR(ROW(),10)</f>
         <v>0</v>
       </c>
     </row>
@@ -19352,7 +19517,7 @@
         <v>71</v>
       </c>
       <c r="F3">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -19391,35 +19556,35 @@
         <v>71</v>
       </c>
       <c r="F4">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>512</v>
+        <v>1024</v>
       </c>
       <c r="J4" s="3">
         <f t="array" ref="J4">AVERAGE(IF($D:$D=$I4,$B:$B))</f>
-        <v>6004.6315920397865</v>
+        <v>17.529099999999996</v>
       </c>
       <c r="K4" s="3">
         <f t="array" ref="K4">MEDIAN(IF($D:$D=$I4,$B:$B))</f>
-        <v>6005.1</v>
+        <v>13.54</v>
       </c>
       <c r="L4" s="3">
         <f t="array" ref="L4">MIN(IF($D:$D=$I4,$B:$B))</f>
-        <v>6000.17</v>
+        <v>9.24</v>
       </c>
       <c r="M4" s="3">
         <f t="array" ref="M4">MAX(IF($D:$D=$I4,$B:$B))</f>
-        <v>6018.68</v>
+        <v>67.95</v>
       </c>
       <c r="N4" s="3">
         <f t="array" ref="N4">STDEV(IF($D:$D=$I4,$B:$B))</f>
-        <v>1.9688866023050657</v>
+        <v>9.5233456701817225</v>
       </c>
       <c r="O4" s="3">
         <f t="array" ref="O4">PERCENTILE((IF($D:$D=$I4,$B:$B)),0.99)</f>
-        <v>6006.66</v>
+        <v>45.209599999999881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -19439,35 +19604,35 @@
         <v>71</v>
       </c>
       <c r="F5">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="J5" s="3">
         <f t="array" ref="J5">AVERAGE(IF($D:$D=$I5,$B:$B))</f>
-        <v>17.529099999999996</v>
+        <v>14.498550000000007</v>
       </c>
       <c r="K5" s="3">
         <f t="array" ref="K5">MEDIAN(IF($D:$D=$I5,$B:$B))</f>
-        <v>13.54</v>
+        <v>11.69</v>
       </c>
       <c r="L5" s="3">
         <f t="array" ref="L5">MIN(IF($D:$D=$I5,$B:$B))</f>
-        <v>9.24</v>
+        <v>9.56</v>
       </c>
       <c r="M5" s="3">
         <f t="array" ref="M5">MAX(IF($D:$D=$I5,$B:$B))</f>
-        <v>67.95</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="N5" s="3">
         <f t="array" ref="N5">STDEV(IF($D:$D=$I5,$B:$B))</f>
-        <v>9.5233456701817225</v>
+        <v>5.4591366775176775</v>
       </c>
       <c r="O5" s="3">
         <f t="array" ref="O5">PERCENTILE((IF($D:$D=$I5,$B:$B)),0.99)</f>
-        <v>45.209599999999881</v>
+        <v>30.372399999999988</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -19487,35 +19652,8 @@
         <v>72</v>
       </c>
       <c r="F6">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2048</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="array" ref="J6">AVERAGE(IF($D:$D=$I6,$B:$B))</f>
-        <v>14.498550000000007</v>
-      </c>
-      <c r="K6" s="3">
-        <f t="array" ref="K6">MEDIAN(IF($D:$D=$I6,$B:$B))</f>
-        <v>11.69</v>
-      </c>
-      <c r="L6" s="3">
-        <f t="array" ref="L6">MIN(IF($D:$D=$I6,$B:$B))</f>
-        <v>9.56</v>
-      </c>
-      <c r="M6" s="3">
-        <f t="array" ref="M6">MAX(IF($D:$D=$I6,$B:$B))</f>
-        <v>39.299999999999997</v>
-      </c>
-      <c r="N6" s="3">
-        <f t="array" ref="N6">STDEV(IF($D:$D=$I6,$B:$B))</f>
-        <v>5.4591366775176775</v>
-      </c>
-      <c r="O6" s="3">
-        <f t="array" ref="O6">PERCENTILE((IF($D:$D=$I6,$B:$B)),0.99)</f>
-        <v>30.372399999999988</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -19535,7 +19673,7 @@
         <v>71</v>
       </c>
       <c r="F7">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19556,7 +19694,7 @@
         <v>71</v>
       </c>
       <c r="F8">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19577,7 +19715,7 @@
         <v>72</v>
       </c>
       <c r="F9">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -19598,7 +19736,7 @@
         <v>72</v>
       </c>
       <c r="F10">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19619,7 +19757,7 @@
         <v>71</v>
       </c>
       <c r="F11">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G11">
@@ -19644,7 +19782,7 @@
         <v>71</v>
       </c>
       <c r="F12">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19665,7 +19803,7 @@
         <v>72</v>
       </c>
       <c r="F13">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19686,7 +19824,7 @@
         <v>72</v>
       </c>
       <c r="F14">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19707,7 +19845,7 @@
         <v>70</v>
       </c>
       <c r="F15">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19728,7 +19866,7 @@
         <v>72</v>
       </c>
       <c r="F16">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19749,7 +19887,7 @@
         <v>72</v>
       </c>
       <c r="F17">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19770,7 +19908,7 @@
         <v>70</v>
       </c>
       <c r="F18">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -19791,7 +19929,7 @@
         <v>71</v>
       </c>
       <c r="F19">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G19">
@@ -19816,7 +19954,7 @@
         <v>71</v>
       </c>
       <c r="F20">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G20">
@@ -19841,7 +19979,7 @@
         <v>72</v>
       </c>
       <c r="F21">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19862,7 +20000,7 @@
         <v>71</v>
       </c>
       <c r="F22">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19883,7 +20021,7 @@
         <v>72</v>
       </c>
       <c r="F23">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19904,7 +20042,7 @@
         <v>72</v>
       </c>
       <c r="F24">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19925,7 +20063,7 @@
         <v>71</v>
       </c>
       <c r="F25">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19946,7 +20084,7 @@
         <v>72</v>
       </c>
       <c r="F26">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19967,7 +20105,7 @@
         <v>72</v>
       </c>
       <c r="F27">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19988,7 +20126,7 @@
         <v>72</v>
       </c>
       <c r="F28">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G28">
@@ -20013,7 +20151,7 @@
         <v>72</v>
       </c>
       <c r="F29">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G29">
@@ -20038,7 +20176,7 @@
         <v>72</v>
       </c>
       <c r="F30">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20059,7 +20197,7 @@
         <v>72</v>
       </c>
       <c r="F31">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20080,7 +20218,7 @@
         <v>71</v>
       </c>
       <c r="F32">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20101,7 +20239,7 @@
         <v>72</v>
       </c>
       <c r="F33">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G33">
@@ -20126,7 +20264,7 @@
         <v>72</v>
       </c>
       <c r="F34">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20147,7 +20285,7 @@
         <v>71</v>
       </c>
       <c r="F35">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20168,7 +20306,7 @@
         <v>71</v>
       </c>
       <c r="F36">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20189,7 +20327,7 @@
         <v>71</v>
       </c>
       <c r="F37">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20210,7 +20348,7 @@
         <v>72</v>
       </c>
       <c r="F38">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20231,7 +20369,7 @@
         <v>72</v>
       </c>
       <c r="F39">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -20252,7 +20390,7 @@
         <v>73</v>
       </c>
       <c r="F40">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20273,7 +20411,7 @@
         <v>71</v>
       </c>
       <c r="F41">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20294,7 +20432,7 @@
         <v>73</v>
       </c>
       <c r="F42">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20315,7 +20453,7 @@
         <v>73</v>
       </c>
       <c r="F43">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20336,7 +20474,7 @@
         <v>73</v>
       </c>
       <c r="F44">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20357,7 +20495,7 @@
         <v>72</v>
       </c>
       <c r="F45">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20378,7 +20516,7 @@
         <v>73</v>
       </c>
       <c r="F46">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20399,7 +20537,7 @@
         <v>72</v>
       </c>
       <c r="F47">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20420,7 +20558,7 @@
         <v>72</v>
       </c>
       <c r="F48">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G48">
@@ -20445,7 +20583,7 @@
         <v>71</v>
       </c>
       <c r="F49">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -20466,7 +20604,7 @@
         <v>72</v>
       </c>
       <c r="F50">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20487,7 +20625,7 @@
         <v>71</v>
       </c>
       <c r="F51">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20508,7 +20646,7 @@
         <v>72</v>
       </c>
       <c r="F52">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G52">
@@ -20533,7 +20671,7 @@
         <v>71</v>
       </c>
       <c r="F53">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G53">
@@ -20558,7 +20696,7 @@
         <v>72</v>
       </c>
       <c r="F54">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20579,7 +20717,7 @@
         <v>72</v>
       </c>
       <c r="F55">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20600,7 +20738,7 @@
         <v>71</v>
       </c>
       <c r="F56">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20621,7 +20759,7 @@
         <v>71</v>
       </c>
       <c r="F57">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G57">
@@ -20646,7 +20784,7 @@
         <v>72</v>
       </c>
       <c r="F58">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G58">
@@ -20671,7 +20809,7 @@
         <v>73</v>
       </c>
       <c r="F59">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -20692,7 +20830,7 @@
         <v>72</v>
       </c>
       <c r="F60">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -20713,7 +20851,7 @@
         <v>72</v>
       </c>
       <c r="F61">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -20734,7 +20872,7 @@
         <v>72</v>
       </c>
       <c r="F62">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -20755,7 +20893,7 @@
         <v>71</v>
       </c>
       <c r="F63">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -20776,7 +20914,7 @@
         <v>72</v>
       </c>
       <c r="F64">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
@@ -20797,7 +20935,7 @@
         <v>71</v>
       </c>
       <c r="F65">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G65">
@@ -20822,7 +20960,7 @@
         <v>72</v>
       </c>
       <c r="F66">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F66:F129" si="1">FLOOR(ROW(),10)</f>
         <v>60</v>
       </c>
     </row>
@@ -20843,7 +20981,7 @@
         <v>70</v>
       </c>
       <c r="F67">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -20864,7 +21002,7 @@
         <v>73</v>
       </c>
       <c r="F68">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -20885,7 +21023,7 @@
         <v>71</v>
       </c>
       <c r="F69">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -20906,7 +21044,7 @@
         <v>73</v>
       </c>
       <c r="F70">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -20927,7 +21065,7 @@
         <v>72</v>
       </c>
       <c r="F71">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -20948,7 +21086,7 @@
         <v>72</v>
       </c>
       <c r="F72">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -20969,7 +21107,7 @@
         <v>71</v>
       </c>
       <c r="F73">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -20990,7 +21128,7 @@
         <v>72</v>
       </c>
       <c r="F74">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -21011,7 +21149,7 @@
         <v>72</v>
       </c>
       <c r="F75">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G75">
@@ -21036,7 +21174,7 @@
         <v>71</v>
       </c>
       <c r="F76">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -21057,7 +21195,7 @@
         <v>73</v>
       </c>
       <c r="F77">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G77">
@@ -21082,7 +21220,7 @@
         <v>71</v>
       </c>
       <c r="F78">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -21103,7 +21241,7 @@
         <v>72</v>
       </c>
       <c r="F79">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
     </row>
@@ -21124,7 +21262,7 @@
         <v>73</v>
       </c>
       <c r="F80">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21145,7 +21283,7 @@
         <v>72</v>
       </c>
       <c r="F81">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21166,7 +21304,7 @@
         <v>71</v>
       </c>
       <c r="F82">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21187,7 +21325,7 @@
         <v>72</v>
       </c>
       <c r="F83">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21208,7 +21346,7 @@
         <v>71</v>
       </c>
       <c r="F84">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21229,7 +21367,7 @@
         <v>72</v>
       </c>
       <c r="F85">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21250,7 +21388,7 @@
         <v>73</v>
       </c>
       <c r="F86">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21271,7 +21409,7 @@
         <v>71</v>
       </c>
       <c r="F87">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21292,7 +21430,7 @@
         <v>71</v>
       </c>
       <c r="F88">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21313,7 +21451,7 @@
         <v>71</v>
       </c>
       <c r="F89">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
     </row>
@@ -21334,7 +21472,7 @@
         <v>71</v>
       </c>
       <c r="F90">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21355,7 +21493,7 @@
         <v>72</v>
       </c>
       <c r="F91">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21376,7 +21514,7 @@
         <v>71</v>
       </c>
       <c r="F92">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21397,7 +21535,7 @@
         <v>73</v>
       </c>
       <c r="F93">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21418,7 +21556,7 @@
         <v>72</v>
       </c>
       <c r="F94">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21439,7 +21577,7 @@
         <v>71</v>
       </c>
       <c r="F95">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
@@ -21460,7 +21598,7 @@
         <v>72</v>
       </c>
       <c r="F96">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G96">
@@ -21485,7 +21623,7 @@
         <v>72</v>
       </c>
       <c r="F97">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G97">
@@ -21510,7 +21648,7 @@
         <v>72</v>
       </c>
       <c r="F98">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G98">
@@ -21535,7 +21673,7 @@
         <v>72</v>
       </c>
       <c r="F99">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G99">
@@ -21560,7 +21698,7 @@
         <v>72</v>
       </c>
       <c r="F100">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21581,7 +21719,7 @@
         <v>72</v>
       </c>
       <c r="F101">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21602,7 +21740,7 @@
         <v>71</v>
       </c>
       <c r="F102">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21623,7 +21761,7 @@
         <v>71</v>
       </c>
       <c r="F103">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21644,7 +21782,7 @@
         <v>72</v>
       </c>
       <c r="F104">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21665,7 +21803,7 @@
         <v>72</v>
       </c>
       <c r="F105">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21686,7 +21824,7 @@
         <v>71</v>
       </c>
       <c r="F106">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21707,7 +21845,7 @@
         <v>73</v>
       </c>
       <c r="F107">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21728,7 +21866,7 @@
         <v>72</v>
       </c>
       <c r="F108">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21749,7 +21887,7 @@
         <v>71</v>
       </c>
       <c r="F109">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -21770,7 +21908,7 @@
         <v>70</v>
       </c>
       <c r="F110">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21791,7 +21929,7 @@
         <v>72</v>
       </c>
       <c r="F111">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21812,7 +21950,7 @@
         <v>72</v>
       </c>
       <c r="F112">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21833,7 +21971,7 @@
         <v>72</v>
       </c>
       <c r="F113">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="G113">
@@ -21858,7 +21996,7 @@
         <v>72</v>
       </c>
       <c r="F114">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21879,7 +22017,7 @@
         <v>72</v>
       </c>
       <c r="F115">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21900,7 +22038,7 @@
         <v>72</v>
       </c>
       <c r="F116">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21921,7 +22059,7 @@
         <v>71</v>
       </c>
       <c r="F117">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="G117">
@@ -21946,7 +22084,7 @@
         <v>70</v>
       </c>
       <c r="F118">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21967,7 +22105,7 @@
         <v>124</v>
       </c>
       <c r="F119">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
     </row>
@@ -21988,7 +22126,7 @@
         <v>71</v>
       </c>
       <c r="F120">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="G120">
@@ -22013,7 +22151,7 @@
         <v>71</v>
       </c>
       <c r="F121">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22034,7 +22172,7 @@
         <v>72</v>
       </c>
       <c r="F122">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22055,7 +22193,7 @@
         <v>71</v>
       </c>
       <c r="F123">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22076,7 +22214,7 @@
         <v>72</v>
       </c>
       <c r="F124">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22097,7 +22235,7 @@
         <v>71</v>
       </c>
       <c r="F125">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22118,7 +22256,7 @@
         <v>72</v>
       </c>
       <c r="F126">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22139,7 +22277,7 @@
         <v>71</v>
       </c>
       <c r="F127">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22160,7 +22298,7 @@
         <v>72</v>
       </c>
       <c r="F128">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22181,7 +22319,7 @@
         <v>71</v>
       </c>
       <c r="F129">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -22202,7 +22340,7 @@
         <v>71</v>
       </c>
       <c r="F130">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F130:F193" si="2">FLOOR(ROW(),10)</f>
         <v>130</v>
       </c>
     </row>
@@ -22223,7 +22361,7 @@
         <v>72</v>
       </c>
       <c r="F131">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22244,7 +22382,7 @@
         <v>73</v>
       </c>
       <c r="F132">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22265,7 +22403,7 @@
         <v>71</v>
       </c>
       <c r="F133">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22286,7 +22424,7 @@
         <v>73</v>
       </c>
       <c r="F134">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22307,7 +22445,7 @@
         <v>72</v>
       </c>
       <c r="F135">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22328,7 +22466,7 @@
         <v>71</v>
       </c>
       <c r="F136">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22349,7 +22487,7 @@
         <v>71</v>
       </c>
       <c r="F137">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22370,7 +22508,7 @@
         <v>72</v>
       </c>
       <c r="F138">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22391,7 +22529,7 @@
         <v>72</v>
       </c>
       <c r="F139">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
     </row>
@@ -22412,7 +22550,7 @@
         <v>72</v>
       </c>
       <c r="F140">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22433,7 +22571,7 @@
         <v>71</v>
       </c>
       <c r="F141">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22454,7 +22592,7 @@
         <v>72</v>
       </c>
       <c r="F142">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22475,7 +22613,7 @@
         <v>72</v>
       </c>
       <c r="F143">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22496,7 +22634,7 @@
         <v>73</v>
       </c>
       <c r="F144">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22517,7 +22655,7 @@
         <v>72</v>
       </c>
       <c r="F145">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22538,7 +22676,7 @@
         <v>72</v>
       </c>
       <c r="F146">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22559,7 +22697,7 @@
         <v>72</v>
       </c>
       <c r="F147">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="G147">
@@ -22584,7 +22722,7 @@
         <v>72</v>
       </c>
       <c r="F148">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22605,7 +22743,7 @@
         <v>71</v>
       </c>
       <c r="F149">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
     </row>
@@ -22626,7 +22764,7 @@
         <v>71</v>
       </c>
       <c r="F150">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22647,7 +22785,7 @@
         <v>71</v>
       </c>
       <c r="F151">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22668,7 +22806,7 @@
         <v>71</v>
       </c>
       <c r="F152">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22689,7 +22827,7 @@
         <v>72</v>
       </c>
       <c r="F153">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22710,7 +22848,7 @@
         <v>71</v>
       </c>
       <c r="F154">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22731,7 +22869,7 @@
         <v>71</v>
       </c>
       <c r="F155">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G155">
@@ -22756,7 +22894,7 @@
         <v>72</v>
       </c>
       <c r="F156">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G156">
@@ -22781,7 +22919,7 @@
         <v>73</v>
       </c>
       <c r="F157">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22802,7 +22940,7 @@
         <v>71</v>
       </c>
       <c r="F158">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="G158">
@@ -22827,7 +22965,7 @@
         <v>71</v>
       </c>
       <c r="F159">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
     </row>
@@ -22848,7 +22986,7 @@
         <v>72</v>
       </c>
       <c r="F160">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22869,7 +23007,7 @@
         <v>71</v>
       </c>
       <c r="F161">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22890,7 +23028,7 @@
         <v>71</v>
       </c>
       <c r="F162">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22911,7 +23049,7 @@
         <v>72</v>
       </c>
       <c r="F163">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22932,7 +23070,7 @@
         <v>71</v>
       </c>
       <c r="F164">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22953,7 +23091,7 @@
         <v>72</v>
       </c>
       <c r="F165">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22974,7 +23112,7 @@
         <v>72</v>
       </c>
       <c r="F166">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -22995,7 +23133,7 @@
         <v>72</v>
       </c>
       <c r="F167">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -23016,7 +23154,7 @@
         <v>72</v>
       </c>
       <c r="F168">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -23037,7 +23175,7 @@
         <v>71</v>
       </c>
       <c r="F169">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
     </row>
@@ -23058,7 +23196,7 @@
         <v>72</v>
       </c>
       <c r="F170">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23079,7 +23217,7 @@
         <v>73</v>
       </c>
       <c r="F171">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23100,7 +23238,7 @@
         <v>72</v>
       </c>
       <c r="F172">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23121,7 +23259,7 @@
         <v>72</v>
       </c>
       <c r="F173">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23142,7 +23280,7 @@
         <v>72</v>
       </c>
       <c r="F174">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23163,7 +23301,7 @@
         <v>73</v>
       </c>
       <c r="F175">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23184,7 +23322,7 @@
         <v>72</v>
       </c>
       <c r="F176">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23205,7 +23343,7 @@
         <v>71</v>
       </c>
       <c r="F177">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23226,7 +23364,7 @@
         <v>71</v>
       </c>
       <c r="F178">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23247,7 +23385,7 @@
         <v>71</v>
       </c>
       <c r="F179">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
     </row>
@@ -23268,7 +23406,7 @@
         <v>70</v>
       </c>
       <c r="F180">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23289,7 +23427,7 @@
         <v>71</v>
       </c>
       <c r="F181">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23310,7 +23448,7 @@
         <v>71</v>
       </c>
       <c r="F182">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23331,7 +23469,7 @@
         <v>72</v>
       </c>
       <c r="F183">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23352,7 +23490,7 @@
         <v>72</v>
       </c>
       <c r="F184">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23373,7 +23511,7 @@
         <v>73</v>
       </c>
       <c r="F185">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23394,7 +23532,7 @@
         <v>73</v>
       </c>
       <c r="F186">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23415,7 +23553,7 @@
         <v>70</v>
       </c>
       <c r="F187">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23436,7 +23574,7 @@
         <v>72</v>
       </c>
       <c r="F188">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23457,7 +23595,7 @@
         <v>71</v>
       </c>
       <c r="F189">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
     </row>
@@ -23478,7 +23616,7 @@
         <v>71</v>
       </c>
       <c r="F190">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
@@ -23499,7 +23637,7 @@
         <v>73</v>
       </c>
       <c r="F191">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
@@ -23520,7 +23658,7 @@
         <v>71</v>
       </c>
       <c r="F192">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
@@ -23541,7 +23679,7 @@
         <v>71</v>
       </c>
       <c r="F193">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
     </row>
@@ -23562,7 +23700,7 @@
         <v>71</v>
       </c>
       <c r="F194">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F194:F257" si="3">FLOOR(ROW(),10)</f>
         <v>190</v>
       </c>
     </row>
@@ -23583,7 +23721,7 @@
         <v>71</v>
       </c>
       <c r="F195">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
@@ -23604,7 +23742,7 @@
         <v>72</v>
       </c>
       <c r="F196">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
@@ -23625,7 +23763,7 @@
         <v>72</v>
       </c>
       <c r="F197">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
@@ -23646,7 +23784,7 @@
         <v>73</v>
       </c>
       <c r="F198">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
@@ -23667,7 +23805,7 @@
         <v>72</v>
       </c>
       <c r="F199">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
     </row>
@@ -23688,7 +23826,7 @@
         <v>72</v>
       </c>
       <c r="F200">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23709,7 +23847,7 @@
         <v>73</v>
       </c>
       <c r="F201">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23730,7 +23868,7 @@
         <v>72</v>
       </c>
       <c r="F202">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23751,7 +23889,7 @@
         <v>149</v>
       </c>
       <c r="F203">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23772,7 +23910,7 @@
         <v>149</v>
       </c>
       <c r="F204">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23793,7 +23931,7 @@
         <v>149</v>
       </c>
       <c r="F205">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23814,7 +23952,7 @@
         <v>149</v>
       </c>
       <c r="F206">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23835,7 +23973,7 @@
         <v>149</v>
       </c>
       <c r="F207">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="G207">
@@ -23860,7 +23998,7 @@
         <v>149</v>
       </c>
       <c r="F208">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
     </row>
@@ -23881,7 +24019,7 @@
         <v>149</v>
       </c>
       <c r="F209">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="G209">
@@ -23906,7 +24044,7 @@
         <v>149</v>
       </c>
       <c r="F210">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -23927,7 +24065,7 @@
         <v>149</v>
       </c>
       <c r="F211">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -23948,7 +24086,7 @@
         <v>149</v>
       </c>
       <c r="F212">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -23969,7 +24107,7 @@
         <v>149</v>
       </c>
       <c r="F213">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -23990,7 +24128,7 @@
         <v>149</v>
       </c>
       <c r="F214">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24011,7 +24149,7 @@
         <v>149</v>
       </c>
       <c r="F215">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24032,7 +24170,7 @@
         <v>149</v>
       </c>
       <c r="F216">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24053,7 +24191,7 @@
         <v>149</v>
       </c>
       <c r="F217">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24074,7 +24212,7 @@
         <v>149</v>
       </c>
       <c r="F218">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24095,7 +24233,7 @@
         <v>149</v>
       </c>
       <c r="F219">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
     </row>
@@ -24116,7 +24254,7 @@
         <v>149</v>
       </c>
       <c r="F220">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24137,7 +24275,7 @@
         <v>149</v>
       </c>
       <c r="F221">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24158,7 +24296,7 @@
         <v>138</v>
       </c>
       <c r="F222">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24179,7 +24317,7 @@
         <v>149</v>
       </c>
       <c r="F223">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24200,7 +24338,7 @@
         <v>149</v>
       </c>
       <c r="F224">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24221,7 +24359,7 @@
         <v>149</v>
       </c>
       <c r="F225">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24242,7 +24380,7 @@
         <v>138</v>
       </c>
       <c r="F226">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24263,7 +24401,7 @@
         <v>138</v>
       </c>
       <c r="F227">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24284,7 +24422,7 @@
         <v>138</v>
       </c>
       <c r="F228">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="G228">
@@ -24309,7 +24447,7 @@
         <v>138</v>
       </c>
       <c r="F229">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
     </row>
@@ -24330,7 +24468,7 @@
         <v>149</v>
       </c>
       <c r="F230">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24351,7 +24489,7 @@
         <v>149</v>
       </c>
       <c r="F231">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24372,7 +24510,7 @@
         <v>138</v>
       </c>
       <c r="F232">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="G232">
@@ -24397,7 +24535,7 @@
         <v>138</v>
       </c>
       <c r="F233">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24418,7 +24556,7 @@
         <v>138</v>
       </c>
       <c r="F234">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24439,7 +24577,7 @@
         <v>138</v>
       </c>
       <c r="F235">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24460,7 +24598,7 @@
         <v>138</v>
       </c>
       <c r="F236">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24481,7 +24619,7 @@
         <v>147</v>
       </c>
       <c r="F237">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24502,7 +24640,7 @@
         <v>138</v>
       </c>
       <c r="F238">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24523,7 +24661,7 @@
         <v>138</v>
       </c>
       <c r="F239">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -24544,7 +24682,7 @@
         <v>138</v>
       </c>
       <c r="F240">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24565,7 +24703,7 @@
         <v>138</v>
       </c>
       <c r="F241">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24586,7 +24724,7 @@
         <v>138</v>
       </c>
       <c r="F242">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24607,7 +24745,7 @@
         <v>138</v>
       </c>
       <c r="F243">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24628,7 +24766,7 @@
         <v>149</v>
       </c>
       <c r="F244">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24649,7 +24787,7 @@
         <v>149</v>
       </c>
       <c r="F245">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24670,7 +24808,7 @@
         <v>149</v>
       </c>
       <c r="F246">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24691,7 +24829,7 @@
         <v>138</v>
       </c>
       <c r="F247">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24712,7 +24850,7 @@
         <v>138</v>
       </c>
       <c r="F248">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24733,7 +24871,7 @@
         <v>138</v>
       </c>
       <c r="F249">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
     </row>
@@ -24754,7 +24892,7 @@
         <v>138</v>
       </c>
       <c r="F250">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24775,7 +24913,7 @@
         <v>138</v>
       </c>
       <c r="F251">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24796,7 +24934,7 @@
         <v>149</v>
       </c>
       <c r="F252">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24817,7 +24955,7 @@
         <v>138</v>
       </c>
       <c r="F253">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24838,7 +24976,7 @@
         <v>149</v>
       </c>
       <c r="F254">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24859,7 +24997,7 @@
         <v>149</v>
       </c>
       <c r="F255">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24880,7 +25018,7 @@
         <v>138</v>
       </c>
       <c r="F256">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24901,7 +25039,7 @@
         <v>138</v>
       </c>
       <c r="F257">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
@@ -24922,7 +25060,7 @@
         <v>138</v>
       </c>
       <c r="F258">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F258:F321" si="4">FLOOR(ROW(),10)</f>
         <v>250</v>
       </c>
     </row>
@@ -24943,7 +25081,7 @@
         <v>138</v>
       </c>
       <c r="F259">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
     </row>
@@ -24964,7 +25102,7 @@
         <v>138</v>
       </c>
       <c r="F260">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -24985,7 +25123,7 @@
         <v>138</v>
       </c>
       <c r="F261">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25006,7 +25144,7 @@
         <v>138</v>
       </c>
       <c r="F262">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25027,7 +25165,7 @@
         <v>138</v>
       </c>
       <c r="F263">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25048,7 +25186,7 @@
         <v>138</v>
       </c>
       <c r="F264">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25069,7 +25207,7 @@
         <v>138</v>
       </c>
       <c r="F265">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25090,7 +25228,7 @@
         <v>138</v>
       </c>
       <c r="F266">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25111,7 +25249,7 @@
         <v>149</v>
       </c>
       <c r="F267">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25132,7 +25270,7 @@
         <v>138</v>
       </c>
       <c r="F268">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
     </row>
@@ -25153,7 +25291,7 @@
         <v>138</v>
       </c>
       <c r="F269">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="G269">
@@ -25178,7 +25316,7 @@
         <v>138</v>
       </c>
       <c r="F270">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="G270">
@@ -25203,7 +25341,7 @@
         <v>138</v>
       </c>
       <c r="F271">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25224,7 +25362,7 @@
         <v>138</v>
       </c>
       <c r="F272">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25245,7 +25383,7 @@
         <v>138</v>
       </c>
       <c r="F273">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25266,7 +25404,7 @@
         <v>138</v>
       </c>
       <c r="F274">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25287,7 +25425,7 @@
         <v>138</v>
       </c>
       <c r="F275">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25308,7 +25446,7 @@
         <v>138</v>
       </c>
       <c r="F276">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25329,7 +25467,7 @@
         <v>138</v>
       </c>
       <c r="F277">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25350,7 +25488,7 @@
         <v>138</v>
       </c>
       <c r="F278">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="G278">
@@ -25375,7 +25513,7 @@
         <v>138</v>
       </c>
       <c r="F279">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
     </row>
@@ -25396,7 +25534,7 @@
         <v>138</v>
       </c>
       <c r="F280">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25417,7 +25555,7 @@
         <v>138</v>
       </c>
       <c r="F281">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25438,7 +25576,7 @@
         <v>138</v>
       </c>
       <c r="F282">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25459,7 +25597,7 @@
         <v>138</v>
       </c>
       <c r="F283">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25480,7 +25618,7 @@
         <v>138</v>
       </c>
       <c r="F284">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25501,7 +25639,7 @@
         <v>149</v>
       </c>
       <c r="F285">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25522,7 +25660,7 @@
         <v>138</v>
       </c>
       <c r="F286">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25543,7 +25681,7 @@
         <v>138</v>
       </c>
       <c r="F287">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25564,7 +25702,7 @@
         <v>138</v>
       </c>
       <c r="F288">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25585,7 +25723,7 @@
         <v>138</v>
       </c>
       <c r="F289">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
     </row>
@@ -25606,7 +25744,7 @@
         <v>138</v>
       </c>
       <c r="F290">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25627,7 +25765,7 @@
         <v>138</v>
       </c>
       <c r="F291">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25648,7 +25786,7 @@
         <v>138</v>
       </c>
       <c r="F292">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25669,7 +25807,7 @@
         <v>138</v>
       </c>
       <c r="F293">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25690,7 +25828,7 @@
         <v>138</v>
       </c>
       <c r="F294">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25711,7 +25849,7 @@
         <v>149</v>
       </c>
       <c r="F295">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25732,7 +25870,7 @@
         <v>138</v>
       </c>
       <c r="F296">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25753,7 +25891,7 @@
         <v>149</v>
       </c>
       <c r="F297">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25774,7 +25912,7 @@
         <v>138</v>
       </c>
       <c r="F298">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25795,7 +25933,7 @@
         <v>149</v>
       </c>
       <c r="F299">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
     </row>
@@ -25816,7 +25954,7 @@
         <v>149</v>
       </c>
       <c r="F300">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25837,7 +25975,7 @@
         <v>145</v>
       </c>
       <c r="F301">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25858,7 +25996,7 @@
         <v>138</v>
       </c>
       <c r="F302">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25879,7 +26017,7 @@
         <v>138</v>
       </c>
       <c r="F303">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25900,7 +26038,7 @@
         <v>144</v>
       </c>
       <c r="F304">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="G304">
@@ -25925,7 +26063,7 @@
         <v>138</v>
       </c>
       <c r="F305">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="G305">
@@ -25950,7 +26088,7 @@
         <v>149</v>
       </c>
       <c r="F306">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25971,7 +26109,7 @@
         <v>149</v>
       </c>
       <c r="F307">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -25992,7 +26130,7 @@
         <v>138</v>
       </c>
       <c r="F308">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -26013,7 +26151,7 @@
         <v>138</v>
       </c>
       <c r="F309">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
@@ -26034,7 +26172,7 @@
         <v>149</v>
       </c>
       <c r="F310">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26055,7 +26193,7 @@
         <v>149</v>
       </c>
       <c r="F311">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="G311">
@@ -26080,7 +26218,7 @@
         <v>149</v>
       </c>
       <c r="F312">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26101,7 +26239,7 @@
         <v>138</v>
       </c>
       <c r="F313">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26122,7 +26260,7 @@
         <v>149</v>
       </c>
       <c r="F314">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26143,7 +26281,7 @@
         <v>149</v>
       </c>
       <c r="F315">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26164,7 +26302,7 @@
         <v>149</v>
       </c>
       <c r="F316">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26185,7 +26323,7 @@
         <v>138</v>
       </c>
       <c r="F317">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26206,7 +26344,7 @@
         <v>138</v>
       </c>
       <c r="F318">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26227,7 +26365,7 @@
         <v>138</v>
       </c>
       <c r="F319">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
     </row>
@@ -26248,7 +26386,7 @@
         <v>149</v>
       </c>
       <c r="F320">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
     </row>
@@ -26269,7 +26407,7 @@
         <v>149</v>
       </c>
       <c r="F321">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
     </row>
@@ -26290,7 +26428,7 @@
         <v>138</v>
       </c>
       <c r="F322">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F322:F385" si="5">FLOOR(ROW(),10)</f>
         <v>320</v>
       </c>
     </row>
@@ -26311,7 +26449,7 @@
         <v>149</v>
       </c>
       <c r="F323">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26332,7 +26470,7 @@
         <v>144</v>
       </c>
       <c r="F324">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26353,7 +26491,7 @@
         <v>138</v>
       </c>
       <c r="F325">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26374,7 +26512,7 @@
         <v>149</v>
       </c>
       <c r="F326">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26395,7 +26533,7 @@
         <v>143</v>
       </c>
       <c r="F327">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26416,7 +26554,7 @@
         <v>149</v>
       </c>
       <c r="F328">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26437,7 +26575,7 @@
         <v>149</v>
       </c>
       <c r="F329">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
     </row>
@@ -26458,7 +26596,7 @@
         <v>149</v>
       </c>
       <c r="F330">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26479,7 +26617,7 @@
         <v>138</v>
       </c>
       <c r="F331">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="G331">
@@ -26504,7 +26642,7 @@
         <v>138</v>
       </c>
       <c r="F332">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26525,7 +26663,7 @@
         <v>138</v>
       </c>
       <c r="F333">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26546,7 +26684,7 @@
         <v>149</v>
       </c>
       <c r="F334">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="G334">
@@ -26571,7 +26709,7 @@
         <v>138</v>
       </c>
       <c r="F335">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26592,7 +26730,7 @@
         <v>138</v>
       </c>
       <c r="F336">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26613,7 +26751,7 @@
         <v>138</v>
       </c>
       <c r="F337">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26634,7 +26772,7 @@
         <v>138</v>
       </c>
       <c r="F338">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26655,7 +26793,7 @@
         <v>149</v>
       </c>
       <c r="F339">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
     </row>
@@ -26676,7 +26814,7 @@
         <v>138</v>
       </c>
       <c r="F340">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26697,7 +26835,7 @@
         <v>138</v>
       </c>
       <c r="F341">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26718,7 +26856,7 @@
         <v>138</v>
       </c>
       <c r="F342">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26739,7 +26877,7 @@
         <v>138</v>
       </c>
       <c r="F343">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26760,7 +26898,7 @@
         <v>149</v>
       </c>
       <c r="F344">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="G344">
@@ -26785,7 +26923,7 @@
         <v>149</v>
       </c>
       <c r="F345">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="G345">
@@ -26810,7 +26948,7 @@
         <v>138</v>
       </c>
       <c r="F346">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26831,7 +26969,7 @@
         <v>138</v>
       </c>
       <c r="F347">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="G347">
@@ -26856,7 +26994,7 @@
         <v>138</v>
       </c>
       <c r="F348">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26877,7 +27015,7 @@
         <v>149</v>
       </c>
       <c r="F349">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
     </row>
@@ -26898,7 +27036,7 @@
         <v>138</v>
       </c>
       <c r="F350">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -26919,7 +27057,7 @@
         <v>149</v>
       </c>
       <c r="F351">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -26940,7 +27078,7 @@
         <v>138</v>
       </c>
       <c r="F352">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -26961,7 +27099,7 @@
         <v>138</v>
       </c>
       <c r="F353">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -26982,7 +27120,7 @@
         <v>138</v>
       </c>
       <c r="F354">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -27003,7 +27141,7 @@
         <v>138</v>
       </c>
       <c r="F355">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -27024,7 +27162,7 @@
         <v>149</v>
       </c>
       <c r="F356">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="G356">
@@ -27049,7 +27187,7 @@
         <v>138</v>
       </c>
       <c r="F357">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -27070,7 +27208,7 @@
         <v>138</v>
       </c>
       <c r="F358">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -27091,7 +27229,7 @@
         <v>149</v>
       </c>
       <c r="F359">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -27112,7 +27250,7 @@
         <v>138</v>
       </c>
       <c r="F360">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27133,7 +27271,7 @@
         <v>138</v>
       </c>
       <c r="F361">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="G361">
@@ -27158,7 +27296,7 @@
         <v>149</v>
       </c>
       <c r="F362">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27179,7 +27317,7 @@
         <v>138</v>
       </c>
       <c r="F363">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27200,7 +27338,7 @@
         <v>138</v>
       </c>
       <c r="F364">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27221,7 +27359,7 @@
         <v>138</v>
       </c>
       <c r="F365">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="G365">
@@ -27246,7 +27384,7 @@
         <v>140</v>
       </c>
       <c r="F366">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27267,7 +27405,7 @@
         <v>138</v>
       </c>
       <c r="F367">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27288,7 +27426,7 @@
         <v>138</v>
       </c>
       <c r="F368">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27309,7 +27447,7 @@
         <v>149</v>
       </c>
       <c r="F369">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
     </row>
@@ -27330,7 +27468,7 @@
         <v>138</v>
       </c>
       <c r="F370">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="G370">
@@ -27355,7 +27493,7 @@
         <v>149</v>
       </c>
       <c r="F371">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27376,7 +27514,7 @@
         <v>149</v>
       </c>
       <c r="F372">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27397,7 +27535,7 @@
         <v>149</v>
       </c>
       <c r="F373">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27418,7 +27556,7 @@
         <v>149</v>
       </c>
       <c r="F374">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27439,7 +27577,7 @@
         <v>138</v>
       </c>
       <c r="F375">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27460,7 +27598,7 @@
         <v>138</v>
       </c>
       <c r="F376">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27481,7 +27619,7 @@
         <v>149</v>
       </c>
       <c r="F377">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27502,7 +27640,7 @@
         <v>138</v>
       </c>
       <c r="F378">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27523,7 +27661,7 @@
         <v>138</v>
       </c>
       <c r="F379">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
     </row>
@@ -27544,7 +27682,7 @@
         <v>138</v>
       </c>
       <c r="F380">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -27565,7 +27703,7 @@
         <v>138</v>
       </c>
       <c r="F381">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -27586,7 +27724,7 @@
         <v>138</v>
       </c>
       <c r="F382">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -27607,7 +27745,7 @@
         <v>138</v>
       </c>
       <c r="F383">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -27628,7 +27766,7 @@
         <v>145</v>
       </c>
       <c r="F384">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
     </row>
@@ -27649,7 +27787,7 @@
         <v>138</v>
       </c>
       <c r="F385">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="G385">
@@ -27674,7 +27812,7 @@
         <v>149</v>
       </c>
       <c r="F386">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F386:F449" si="6">FLOOR(ROW(),10)</f>
         <v>380</v>
       </c>
     </row>
@@ -27695,7 +27833,7 @@
         <v>138</v>
       </c>
       <c r="F387">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="G387">
@@ -27720,7 +27858,7 @@
         <v>138</v>
       </c>
       <c r="F388">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
     </row>
@@ -27741,7 +27879,7 @@
         <v>138</v>
       </c>
       <c r="F389">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
     </row>
@@ -27762,7 +27900,7 @@
         <v>138</v>
       </c>
       <c r="F390">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27783,7 +27921,7 @@
         <v>138</v>
       </c>
       <c r="F391">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27804,7 +27942,7 @@
         <v>138</v>
       </c>
       <c r="F392">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27825,7 +27963,7 @@
         <v>138</v>
       </c>
       <c r="F393">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27846,7 +27984,7 @@
         <v>149</v>
       </c>
       <c r="F394">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="G394">
@@ -27871,7 +28009,7 @@
         <v>149</v>
       </c>
       <c r="F395">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="G395">
@@ -27896,7 +28034,7 @@
         <v>138</v>
       </c>
       <c r="F396">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="G396">
@@ -27921,7 +28059,7 @@
         <v>149</v>
       </c>
       <c r="F397">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27942,7 +28080,7 @@
         <v>138</v>
       </c>
       <c r="F398">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27963,7 +28101,7 @@
         <v>138</v>
       </c>
       <c r="F399">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
     </row>
@@ -27984,7 +28122,7 @@
         <v>138</v>
       </c>
       <c r="F400">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="G400">
@@ -28009,7 +28147,7 @@
         <v>143</v>
       </c>
       <c r="F401">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28030,7 +28168,7 @@
         <v>138</v>
       </c>
       <c r="F402">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28051,7 +28189,7 @@
         <v>159</v>
       </c>
       <c r="F403">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="G403">
@@ -28076,7 +28214,7 @@
         <v>159</v>
       </c>
       <c r="F404">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28097,7 +28235,7 @@
         <v>159</v>
       </c>
       <c r="F405">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28118,7 +28256,7 @@
         <v>159</v>
       </c>
       <c r="F406">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28139,7 +28277,7 @@
         <v>159</v>
       </c>
       <c r="F407">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28160,7 +28298,7 @@
         <v>159</v>
       </c>
       <c r="F408">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28181,7 +28319,7 @@
         <v>159</v>
       </c>
       <c r="F409">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -28202,7 +28340,7 @@
         <v>159</v>
       </c>
       <c r="F410">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28223,7 +28361,7 @@
         <v>159</v>
       </c>
       <c r="F411">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28244,7 +28382,7 @@
         <v>159</v>
       </c>
       <c r="F412">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28265,7 +28403,7 @@
         <v>159</v>
       </c>
       <c r="F413">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28286,7 +28424,7 @@
         <v>159</v>
       </c>
       <c r="F414">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28307,7 +28445,7 @@
         <v>159</v>
       </c>
       <c r="F415">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28328,7 +28466,7 @@
         <v>159</v>
       </c>
       <c r="F416">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
       <c r="G416">
@@ -28353,7 +28491,7 @@
         <v>159</v>
       </c>
       <c r="F417">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28374,7 +28512,7 @@
         <v>159</v>
       </c>
       <c r="F418">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28395,7 +28533,7 @@
         <v>159</v>
       </c>
       <c r="F419">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>410</v>
       </c>
     </row>
@@ -28416,7 +28554,7 @@
         <v>159</v>
       </c>
       <c r="F420">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28437,7 +28575,7 @@
         <v>159</v>
       </c>
       <c r="F421">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28458,7 +28596,7 @@
         <v>159</v>
       </c>
       <c r="F422">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28479,7 +28617,7 @@
         <v>159</v>
       </c>
       <c r="F423">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28500,7 +28638,7 @@
         <v>159</v>
       </c>
       <c r="F424">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28521,7 +28659,7 @@
         <v>159</v>
       </c>
       <c r="F425">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28542,7 +28680,7 @@
         <v>159</v>
       </c>
       <c r="F426">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28563,7 +28701,7 @@
         <v>159</v>
       </c>
       <c r="F427">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28584,7 +28722,7 @@
         <v>159</v>
       </c>
       <c r="F428">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28605,7 +28743,7 @@
         <v>159</v>
       </c>
       <c r="F429">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>420</v>
       </c>
     </row>
@@ -28626,7 +28764,7 @@
         <v>159</v>
       </c>
       <c r="F430">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28647,7 +28785,7 @@
         <v>149</v>
       </c>
       <c r="F431">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28668,7 +28806,7 @@
         <v>159</v>
       </c>
       <c r="F432">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28689,7 +28827,7 @@
         <v>159</v>
       </c>
       <c r="F433">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="G433">
@@ -28714,7 +28852,7 @@
         <v>159</v>
       </c>
       <c r="F434">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28735,7 +28873,7 @@
         <v>159</v>
       </c>
       <c r="F435">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28756,7 +28894,7 @@
         <v>149</v>
       </c>
       <c r="F436">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28777,7 +28915,7 @@
         <v>149</v>
       </c>
       <c r="F437">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28798,7 +28936,7 @@
         <v>149</v>
       </c>
       <c r="F438">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
     </row>
@@ -28819,7 +28957,7 @@
         <v>159</v>
       </c>
       <c r="F439">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>430</v>
       </c>
       <c r="G439">
@@ -28844,7 +28982,7 @@
         <v>159</v>
       </c>
       <c r="F440">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28865,7 +29003,7 @@
         <v>149</v>
       </c>
       <c r="F441">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28886,7 +29024,7 @@
         <v>159</v>
       </c>
       <c r="F442">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28907,7 +29045,7 @@
         <v>149</v>
       </c>
       <c r="F443">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28928,7 +29066,7 @@
         <v>149</v>
       </c>
       <c r="F444">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28949,7 +29087,7 @@
         <v>149</v>
       </c>
       <c r="F445">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -28970,7 +29108,7 @@
         <v>149</v>
       </c>
       <c r="F446">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
       <c r="G446">
@@ -28995,7 +29133,7 @@
         <v>159</v>
       </c>
       <c r="F447">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -29016,7 +29154,7 @@
         <v>149</v>
       </c>
       <c r="F448">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -29037,7 +29175,7 @@
         <v>149</v>
       </c>
       <c r="F449">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="6"/>
         <v>440</v>
       </c>
     </row>
@@ -29058,7 +29196,7 @@
         <v>149</v>
       </c>
       <c r="F450">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F450:F513" si="7">FLOOR(ROW(),10)</f>
         <v>450</v>
       </c>
     </row>
@@ -29079,7 +29217,7 @@
         <v>149</v>
       </c>
       <c r="F451">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29100,7 +29238,7 @@
         <v>159</v>
       </c>
       <c r="F452">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29121,7 +29259,7 @@
         <v>149</v>
       </c>
       <c r="F453">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29142,7 +29280,7 @@
         <v>149</v>
       </c>
       <c r="F454">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="G454">
@@ -29167,7 +29305,7 @@
         <v>149</v>
       </c>
       <c r="F455">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29188,7 +29326,7 @@
         <v>149</v>
       </c>
       <c r="F456">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29209,7 +29347,7 @@
         <v>149</v>
       </c>
       <c r="F457">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29230,7 +29368,7 @@
         <v>159</v>
       </c>
       <c r="F458">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="G458">
@@ -29255,7 +29393,7 @@
         <v>149</v>
       </c>
       <c r="F459">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
     </row>
@@ -29276,7 +29414,7 @@
         <v>149</v>
       </c>
       <c r="F460">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29297,7 +29435,7 @@
         <v>149</v>
       </c>
       <c r="F461">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29318,7 +29456,7 @@
         <v>149</v>
       </c>
       <c r="F462">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29339,7 +29477,7 @@
         <v>149</v>
       </c>
       <c r="F463">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29360,7 +29498,7 @@
         <v>149</v>
       </c>
       <c r="F464">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29381,7 +29519,7 @@
         <v>149</v>
       </c>
       <c r="F465">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29402,7 +29540,7 @@
         <v>149</v>
       </c>
       <c r="F466">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29423,7 +29561,7 @@
         <v>149</v>
       </c>
       <c r="F467">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29444,7 +29582,7 @@
         <v>148</v>
       </c>
       <c r="F468">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29465,7 +29603,7 @@
         <v>149</v>
       </c>
       <c r="F469">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>460</v>
       </c>
     </row>
@@ -29486,7 +29624,7 @@
         <v>149</v>
       </c>
       <c r="F470">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="G470">
@@ -29511,7 +29649,7 @@
         <v>149</v>
       </c>
       <c r="F471">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="G471">
@@ -29536,7 +29674,7 @@
         <v>148</v>
       </c>
       <c r="F472">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29557,7 +29695,7 @@
         <v>149</v>
       </c>
       <c r="F473">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29578,7 +29716,7 @@
         <v>149</v>
       </c>
       <c r="F474">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29599,7 +29737,7 @@
         <v>149</v>
       </c>
       <c r="F475">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29620,7 +29758,7 @@
         <v>148</v>
       </c>
       <c r="F476">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="G476">
@@ -29645,7 +29783,7 @@
         <v>149</v>
       </c>
       <c r="F477">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29666,7 +29804,7 @@
         <v>148</v>
       </c>
       <c r="F478">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
     </row>
@@ -29687,7 +29825,7 @@
         <v>149</v>
       </c>
       <c r="F479">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>470</v>
       </c>
       <c r="G479">
@@ -29712,7 +29850,7 @@
         <v>148</v>
       </c>
       <c r="F480">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="G480">
@@ -29737,7 +29875,7 @@
         <v>148</v>
       </c>
       <c r="F481">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29758,7 +29896,7 @@
         <v>149</v>
       </c>
       <c r="F482">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29779,7 +29917,7 @@
         <v>149</v>
       </c>
       <c r="F483">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29800,7 +29938,7 @@
         <v>149</v>
       </c>
       <c r="F484">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
       <c r="G484">
@@ -29825,7 +29963,7 @@
         <v>149</v>
       </c>
       <c r="F485">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29846,7 +29984,7 @@
         <v>159</v>
       </c>
       <c r="F486">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29867,7 +30005,7 @@
         <v>148</v>
       </c>
       <c r="F487">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29888,7 +30026,7 @@
         <v>159</v>
       </c>
       <c r="F488">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29909,7 +30047,7 @@
         <v>159</v>
       </c>
       <c r="F489">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>480</v>
       </c>
     </row>
@@ -29930,7 +30068,7 @@
         <v>148</v>
       </c>
       <c r="F490">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -29951,7 +30089,7 @@
         <v>148</v>
       </c>
       <c r="F491">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -29972,7 +30110,7 @@
         <v>148</v>
       </c>
       <c r="F492">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -29993,7 +30131,7 @@
         <v>149</v>
       </c>
       <c r="F493">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30014,7 +30152,7 @@
         <v>148</v>
       </c>
       <c r="F494">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30035,7 +30173,7 @@
         <v>149</v>
       </c>
       <c r="F495">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30056,7 +30194,7 @@
         <v>159</v>
       </c>
       <c r="F496">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
       <c r="G496">
@@ -30081,7 +30219,7 @@
         <v>148</v>
       </c>
       <c r="F497">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30102,7 +30240,7 @@
         <v>149</v>
       </c>
       <c r="F498">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30123,7 +30261,7 @@
         <v>149</v>
       </c>
       <c r="F499">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>490</v>
       </c>
     </row>
@@ -30144,7 +30282,7 @@
         <v>156</v>
       </c>
       <c r="F500">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30165,7 +30303,7 @@
         <v>148</v>
       </c>
       <c r="F501">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30186,7 +30324,7 @@
         <v>149</v>
       </c>
       <c r="F502">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30207,7 +30345,7 @@
         <v>150</v>
       </c>
       <c r="F503">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30228,7 +30366,7 @@
         <v>149</v>
       </c>
       <c r="F504">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
       <c r="G504">
@@ -30253,7 +30391,7 @@
         <v>149</v>
       </c>
       <c r="F505">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30274,7 +30412,7 @@
         <v>149</v>
       </c>
       <c r="F506">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30295,7 +30433,7 @@
         <v>148</v>
       </c>
       <c r="F507">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30316,7 +30454,7 @@
         <v>148</v>
       </c>
       <c r="F508">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30337,7 +30475,7 @@
         <v>159</v>
       </c>
       <c r="F509">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>500</v>
       </c>
     </row>
@@ -30358,7 +30496,7 @@
         <v>148</v>
       </c>
       <c r="F510">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
     </row>
@@ -30379,7 +30517,7 @@
         <v>151</v>
       </c>
       <c r="F511">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
     </row>
@@ -30400,7 +30538,7 @@
         <v>149</v>
       </c>
       <c r="F512">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
     </row>
@@ -30421,7 +30559,7 @@
         <v>159</v>
       </c>
       <c r="F513">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="7"/>
         <v>510</v>
       </c>
     </row>
@@ -30442,7 +30580,7 @@
         <v>148</v>
       </c>
       <c r="F514">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F514:F577" si="8">FLOOR(ROW(),10)</f>
         <v>510</v>
       </c>
     </row>
@@ -30463,7 +30601,7 @@
         <v>159</v>
       </c>
       <c r="F515">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
@@ -30484,7 +30622,7 @@
         <v>149</v>
       </c>
       <c r="F516">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
@@ -30505,7 +30643,7 @@
         <v>159</v>
       </c>
       <c r="F517">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
@@ -30526,7 +30664,7 @@
         <v>148</v>
       </c>
       <c r="F518">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
@@ -30547,7 +30685,7 @@
         <v>149</v>
       </c>
       <c r="F519">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
     </row>
@@ -30568,7 +30706,7 @@
         <v>148</v>
       </c>
       <c r="F520">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30589,7 +30727,7 @@
         <v>153</v>
       </c>
       <c r="F521">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30610,7 +30748,7 @@
         <v>148</v>
       </c>
       <c r="F522">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30631,7 +30769,7 @@
         <v>148</v>
       </c>
       <c r="F523">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="G523">
@@ -30656,7 +30794,7 @@
         <v>148</v>
       </c>
       <c r="F524">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30677,7 +30815,7 @@
         <v>159</v>
       </c>
       <c r="F525">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30698,7 +30836,7 @@
         <v>149</v>
       </c>
       <c r="F526">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="G526">
@@ -30723,7 +30861,7 @@
         <v>148</v>
       </c>
       <c r="F527">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30744,7 +30882,7 @@
         <v>149</v>
       </c>
       <c r="F528">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
     </row>
@@ -30765,7 +30903,7 @@
         <v>149</v>
       </c>
       <c r="F529">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>520</v>
       </c>
       <c r="G529">
@@ -30790,7 +30928,7 @@
         <v>149</v>
       </c>
       <c r="F530">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30811,7 +30949,7 @@
         <v>149</v>
       </c>
       <c r="F531">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30832,7 +30970,7 @@
         <v>159</v>
       </c>
       <c r="F532">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30853,7 +30991,7 @@
         <v>149</v>
       </c>
       <c r="F533">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30874,7 +31012,7 @@
         <v>149</v>
       </c>
       <c r="F534">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30895,7 +31033,7 @@
         <v>149</v>
       </c>
       <c r="F535">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30916,7 +31054,7 @@
         <v>149</v>
       </c>
       <c r="F536">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30937,7 +31075,7 @@
         <v>159</v>
       </c>
       <c r="F537">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30958,7 +31096,7 @@
         <v>159</v>
       </c>
       <c r="F538">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -30979,7 +31117,7 @@
         <v>149</v>
       </c>
       <c r="F539">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>530</v>
       </c>
     </row>
@@ -31000,7 +31138,7 @@
         <v>159</v>
       </c>
       <c r="F540">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31021,7 +31159,7 @@
         <v>159</v>
       </c>
       <c r="F541">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31042,7 +31180,7 @@
         <v>149</v>
       </c>
       <c r="F542">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31063,7 +31201,7 @@
         <v>149</v>
       </c>
       <c r="F543">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="G543">
@@ -31088,7 +31226,7 @@
         <v>149</v>
       </c>
       <c r="F544">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31109,7 +31247,7 @@
         <v>149</v>
       </c>
       <c r="F545">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31130,7 +31268,7 @@
         <v>149</v>
       </c>
       <c r="F546">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31151,7 +31289,7 @@
         <v>149</v>
       </c>
       <c r="F547">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31172,7 +31310,7 @@
         <v>148</v>
       </c>
       <c r="F548">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
     </row>
@@ -31193,7 +31331,7 @@
         <v>155</v>
       </c>
       <c r="F549">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>540</v>
       </c>
       <c r="G549">
@@ -31218,7 +31356,7 @@
         <v>159</v>
       </c>
       <c r="F550">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31239,7 +31377,7 @@
         <v>149</v>
       </c>
       <c r="F551">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31260,7 +31398,7 @@
         <v>149</v>
       </c>
       <c r="F552">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
       <c r="G552">
@@ -31285,7 +31423,7 @@
         <v>148</v>
       </c>
       <c r="F553">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31306,7 +31444,7 @@
         <v>149</v>
       </c>
       <c r="F554">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31327,7 +31465,7 @@
         <v>159</v>
       </c>
       <c r="F555">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31348,7 +31486,7 @@
         <v>149</v>
       </c>
       <c r="F556">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31369,7 +31507,7 @@
         <v>159</v>
       </c>
       <c r="F557">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31390,7 +31528,7 @@
         <v>149</v>
       </c>
       <c r="F558">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31411,7 +31549,7 @@
         <v>149</v>
       </c>
       <c r="F559">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>550</v>
       </c>
     </row>
@@ -31432,7 +31570,7 @@
         <v>149</v>
       </c>
       <c r="F560">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31453,7 +31591,7 @@
         <v>149</v>
       </c>
       <c r="F561">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31474,7 +31612,7 @@
         <v>149</v>
       </c>
       <c r="F562">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31495,7 +31633,7 @@
         <v>159</v>
       </c>
       <c r="F563">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="G563">
@@ -31520,7 +31658,7 @@
         <v>159</v>
       </c>
       <c r="F564">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31541,7 +31679,7 @@
         <v>149</v>
       </c>
       <c r="F565">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31562,7 +31700,7 @@
         <v>159</v>
       </c>
       <c r="F566">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
       <c r="G566">
@@ -31587,7 +31725,7 @@
         <v>159</v>
       </c>
       <c r="F567">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31608,7 +31746,7 @@
         <v>159</v>
       </c>
       <c r="F568">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31629,7 +31767,7 @@
         <v>149</v>
       </c>
       <c r="F569">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>560</v>
       </c>
     </row>
@@ -31650,7 +31788,7 @@
         <v>149</v>
       </c>
       <c r="F570">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31671,7 +31809,7 @@
         <v>148</v>
       </c>
       <c r="F571">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31692,7 +31830,7 @@
         <v>148</v>
       </c>
       <c r="F572">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31713,7 +31851,7 @@
         <v>158</v>
       </c>
       <c r="F573">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31734,7 +31872,7 @@
         <v>159</v>
       </c>
       <c r="F574">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
       <c r="G574">
@@ -31759,7 +31897,7 @@
         <v>159</v>
       </c>
       <c r="F575">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31780,7 +31918,7 @@
         <v>149</v>
       </c>
       <c r="F576">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31801,7 +31939,7 @@
         <v>148</v>
       </c>
       <c r="F577">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="8"/>
         <v>570</v>
       </c>
     </row>
@@ -31822,7 +31960,7 @@
         <v>149</v>
       </c>
       <c r="F578">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" ref="F578:F602" si="9">FLOOR(ROW(),10)</f>
         <v>570</v>
       </c>
     </row>
@@ -31843,7 +31981,7 @@
         <v>159</v>
       </c>
       <c r="F579">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>570</v>
       </c>
     </row>
@@ -31864,7 +32002,7 @@
         <v>149</v>
       </c>
       <c r="F580">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31885,7 +32023,7 @@
         <v>149</v>
       </c>
       <c r="F581">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31906,7 +32044,7 @@
         <v>149</v>
       </c>
       <c r="F582">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31927,7 +32065,7 @@
         <v>149</v>
       </c>
       <c r="F583">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31948,7 +32086,7 @@
         <v>159</v>
       </c>
       <c r="F584">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31969,7 +32107,7 @@
         <v>159</v>
       </c>
       <c r="F585">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -31990,7 +32128,7 @@
         <v>159</v>
       </c>
       <c r="F586">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -32011,7 +32149,7 @@
         <v>148</v>
       </c>
       <c r="F587">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
       <c r="G587">
@@ -32036,7 +32174,7 @@
         <v>154</v>
       </c>
       <c r="F588">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -32057,7 +32195,7 @@
         <v>155</v>
       </c>
       <c r="F589">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>580</v>
       </c>
     </row>
@@ -32078,7 +32216,7 @@
         <v>159</v>
       </c>
       <c r="F590">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32099,7 +32237,7 @@
         <v>159</v>
       </c>
       <c r="F591">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32120,7 +32258,7 @@
         <v>149</v>
       </c>
       <c r="F592">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32141,7 +32279,7 @@
         <v>149</v>
       </c>
       <c r="F593">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32162,7 +32300,7 @@
         <v>149</v>
       </c>
       <c r="F594">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32183,7 +32321,7 @@
         <v>159</v>
       </c>
       <c r="F595">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32204,7 +32342,7 @@
         <v>148</v>
       </c>
       <c r="F596">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32225,7 +32363,7 @@
         <v>149</v>
       </c>
       <c r="F597">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32246,7 +32384,7 @@
         <v>159</v>
       </c>
       <c r="F598">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32267,7 +32405,7 @@
         <v>149</v>
       </c>
       <c r="F599">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>590</v>
       </c>
     </row>
@@ -32288,7 +32426,7 @@
         <v>149</v>
       </c>
       <c r="F600">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
@@ -32309,7 +32447,7 @@
         <v>148</v>
       </c>
       <c r="F601">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
@@ -32330,20 +32468,20 @@
         <v>159</v>
       </c>
       <c r="F602">
-        <f>FLOOR(ROW(),10)</f>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E602">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E602">
-      <sortCondition ref="D2:D602"/>
-      <sortCondition ref="A2:A602"/>
+  <autoFilter ref="A1:E602" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E601">
+      <sortCondition ref="D2:D601"/>
+      <sortCondition ref="A2:A601"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G602">
-    <sortCondition ref="D2:D602"/>
-    <sortCondition ref="B2:B602"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G601">
+    <sortCondition ref="D2:D601"/>
+    <sortCondition ref="B2:B601"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
